--- a/2020/Others/Adding New Retailer Format/Inactive retailers format.xlsx
+++ b/2020/Others/Adding New Retailer Format/Inactive retailers format.xlsx
@@ -116,13 +116,13 @@
     <t>S.N</t>
   </si>
   <si>
-    <t>RET-14872</t>
-  </si>
-  <si>
-    <t>Bismillah Mobile Center</t>
-  </si>
-  <si>
-    <t>Molla Super Market, Doyarampur</t>
+    <t>RET-33092</t>
+  </si>
+  <si>
+    <t>Mondol Mobile Center</t>
+  </si>
+  <si>
+    <t>Natore Sodor, Natore.</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/2020/Others/Adding New Retailer Format/Inactive retailers format.xlsx
+++ b/2020/Others/Adding New Retailer Format/Inactive retailers format.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">RetailerID </t>
   </si>
@@ -33,95 +33,20 @@
     <t xml:space="preserve">RetailerAddress </t>
   </si>
   <si>
-    <t>RET-34209</t>
+    <t>RET-07868</t>
   </si>
   <si>
-    <t>Bondhon Telecom</t>
+    <t>S.N Mobile Center</t>
   </si>
   <si>
-    <t>Jahurul Electronics</t>
-  </si>
-  <si>
-    <t>RET-28514</t>
-  </si>
-  <si>
-    <t>RET-28513</t>
-  </si>
-  <si>
-    <t>Patwari Enterprise</t>
-  </si>
-  <si>
-    <t>RET-32044</t>
-  </si>
-  <si>
-    <t>Mijan Telecom</t>
-  </si>
-  <si>
-    <t>Bonpara</t>
-  </si>
-  <si>
-    <t>Jogipara Bazar</t>
-  </si>
-  <si>
-    <t>Patwari Sopping Complex</t>
-  </si>
-  <si>
-    <t>RET-34208</t>
-  </si>
-  <si>
-    <t>Friends Telecom</t>
-  </si>
-  <si>
-    <t>Naldanga</t>
-  </si>
-  <si>
-    <t>RET-34134</t>
-  </si>
-  <si>
-    <t>Rony Computer</t>
-  </si>
-  <si>
-    <t>Gurudaspur</t>
-  </si>
-  <si>
-    <t>RET-29191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubaia Telecom </t>
-  </si>
-  <si>
-    <t>Bagdop Bazar</t>
-  </si>
-  <si>
-    <t>RET-14728</t>
-  </si>
-  <si>
-    <t>Snigdha Telecom</t>
-  </si>
-  <si>
-    <t>Alhaz new Market</t>
-  </si>
-  <si>
-    <t>RET-28694</t>
-  </si>
-  <si>
-    <t>M/S Mandol Electric &amp; Electronics</t>
-  </si>
-  <si>
-    <t>Najirpur</t>
-  </si>
-  <si>
-    <t>RET-34137</t>
-  </si>
-  <si>
-    <t>Motleb Electric &amp; Electronics</t>
+    <t>Central Masjid Market</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +64,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -197,6 +138,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -504,10 +454,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -520,7 +470,7 @@
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:14">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -531,7 +481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1">
+    <row r="2" spans="1:14" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -539,130 +489,92 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:14">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:14">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:14">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -783,6 +695,16 @@
       <c r="C39" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2020/Others/Adding New Retailer Format/Inactive retailers format.xlsx
+++ b/2020/Others/Adding New Retailer Format/Inactive retailers format.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">RetailerID </t>
   </si>
@@ -33,13 +33,85 @@
     <t xml:space="preserve">RetailerAddress </t>
   </si>
   <si>
-    <t>RET-07868</t>
-  </si>
-  <si>
-    <t>S.N Mobile Center</t>
-  </si>
-  <si>
-    <t>Central Masjid Market</t>
+    <t>Azer Telecom</t>
+  </si>
+  <si>
+    <t>RET-08809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arani BazarBaghaRajshahi </t>
+  </si>
+  <si>
+    <t>RET-08821</t>
+  </si>
+  <si>
+    <t>Lalon Telecom</t>
+  </si>
+  <si>
+    <t>School MarketPuthiaRajshahi</t>
+  </si>
+  <si>
+    <t>Ahona Telecom</t>
+  </si>
+  <si>
+    <t>RET-20749</t>
+  </si>
+  <si>
+    <t>Yusufpur Bazar Charghat Rajshahi</t>
+  </si>
+  <si>
+    <t>RET-21074</t>
+  </si>
+  <si>
+    <t>Piku Telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arani Bazar Bagha Rajshahi </t>
+  </si>
+  <si>
+    <t>RET-21075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samsul Pharmacy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durduria Bazar Lalpur Natore </t>
+  </si>
+  <si>
+    <t>RET-21146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rizia Variety Store </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khanpur Bazar Bagha Rajshahi </t>
+  </si>
+  <si>
+    <t>RET-29194</t>
+  </si>
+  <si>
+    <t>Sampa Telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirganj Bazar Bagha Rajshahi </t>
+  </si>
+  <si>
+    <t>RET-29196</t>
+  </si>
+  <si>
+    <t>Majumdar Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lalpur Bazar Lalpur Natore </t>
+  </si>
+  <si>
+    <t>RET-34481</t>
+  </si>
+  <si>
+    <t>Liza Telecom</t>
+  </si>
+  <si>
+    <t>Somospara Singra.</t>
   </si>
 </sst>
 </file>
@@ -140,13 +212,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -457,7 +529,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -483,10 +555,10 @@
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -494,60 +566,108 @@
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11"/>
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11"/>
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="5"/>

--- a/2020/Others/Adding New Retailer Format/Inactive retailers format.xlsx
+++ b/2020/Others/Adding New Retailer Format/Inactive retailers format.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">RetailerID </t>
   </si>
@@ -33,85 +33,67 @@
     <t xml:space="preserve">RetailerAddress </t>
   </si>
   <si>
-    <t>Azer Telecom</t>
-  </si>
-  <si>
-    <t>RET-08809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arani BazarBaghaRajshahi </t>
-  </si>
-  <si>
-    <t>RET-08821</t>
-  </si>
-  <si>
-    <t>Lalon Telecom</t>
-  </si>
-  <si>
-    <t>School MarketPuthiaRajshahi</t>
-  </si>
-  <si>
-    <t>Ahona Telecom</t>
-  </si>
-  <si>
-    <t>RET-20749</t>
-  </si>
-  <si>
-    <t>Yusufpur Bazar Charghat Rajshahi</t>
-  </si>
-  <si>
-    <t>RET-21074</t>
-  </si>
-  <si>
-    <t>Piku Telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arani Bazar Bagha Rajshahi </t>
-  </si>
-  <si>
-    <t>RET-21075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samsul Pharmacy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durduria Bazar Lalpur Natore </t>
-  </si>
-  <si>
-    <t>RET-21146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rizia Variety Store </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khanpur Bazar Bagha Rajshahi </t>
-  </si>
-  <si>
-    <t>RET-29194</t>
-  </si>
-  <si>
-    <t>Sampa Telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirganj Bazar Bagha Rajshahi </t>
-  </si>
-  <si>
-    <t>RET-29196</t>
-  </si>
-  <si>
-    <t>Majumdar Electronics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lalpur Bazar Lalpur Natore </t>
-  </si>
-  <si>
-    <t>RET-34481</t>
-  </si>
-  <si>
-    <t>Liza Telecom</t>
-  </si>
-  <si>
-    <t>Somospara Singra.</t>
+    <t>RET-08803</t>
+  </si>
+  <si>
+    <t>Poroshi Telecom</t>
+  </si>
+  <si>
+    <t>Sardah Baza</t>
+  </si>
+  <si>
+    <t>RET-21070</t>
+  </si>
+  <si>
+    <t>Tajmul Telecom</t>
+  </si>
+  <si>
+    <t>Station Market</t>
+  </si>
+  <si>
+    <t>RET-23822</t>
+  </si>
+  <si>
+    <t>Mohona Telecom</t>
+  </si>
+  <si>
+    <t>Sherkul Bazar</t>
+  </si>
+  <si>
+    <t>RET-26501</t>
+  </si>
+  <si>
+    <t>Tamanna Telecom</t>
+  </si>
+  <si>
+    <t>Tebaria Baza</t>
+  </si>
+  <si>
+    <t>RET-26506</t>
+  </si>
+  <si>
+    <t>Tripty Electronics</t>
+  </si>
+  <si>
+    <t>Jonail bazar</t>
+  </si>
+  <si>
+    <t>RET-29332</t>
+  </si>
+  <si>
+    <t>Rasel Electronics</t>
+  </si>
+  <si>
+    <t>Bagha Bazar</t>
+  </si>
+  <si>
+    <t>RET-32048</t>
+  </si>
+  <si>
+    <t>Islam Enterprise</t>
+  </si>
+  <si>
+    <t>Singra</t>
   </si>
 </sst>
 </file>
@@ -192,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -203,23 +185,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,7 +517,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -543,131 +531,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="5"/>

--- a/2020/Others/Adding New Retailer Format/Inactive retailers format.xlsx
+++ b/2020/Others/Adding New Retailer Format/Inactive retailers format.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t xml:space="preserve">RetailerID </t>
   </si>
@@ -33,67 +33,91 @@
     <t xml:space="preserve">RetailerAddress </t>
   </si>
   <si>
-    <t>RET-08803</t>
-  </si>
-  <si>
-    <t>Poroshi Telecom</t>
-  </si>
-  <si>
-    <t>Sardah Baza</t>
-  </si>
-  <si>
-    <t>RET-21070</t>
-  </si>
-  <si>
-    <t>Tajmul Telecom</t>
-  </si>
-  <si>
-    <t>Station Market</t>
-  </si>
-  <si>
-    <t>RET-23822</t>
-  </si>
-  <si>
-    <t>Mohona Telecom</t>
-  </si>
-  <si>
-    <t>Sherkul Bazar</t>
-  </si>
-  <si>
-    <t>RET-26501</t>
-  </si>
-  <si>
-    <t>Tamanna Telecom</t>
-  </si>
-  <si>
-    <t>Tebaria Baza</t>
-  </si>
-  <si>
-    <t>RET-26506</t>
-  </si>
-  <si>
-    <t>Tripty Electronics</t>
-  </si>
-  <si>
-    <t>Jonail bazar</t>
-  </si>
-  <si>
-    <t>RET-29332</t>
-  </si>
-  <si>
-    <t>Rasel Electronics</t>
-  </si>
-  <si>
     <t>Bagha Bazar</t>
   </si>
   <si>
-    <t>RET-32048</t>
-  </si>
-  <si>
-    <t>Islam Enterprise</t>
-  </si>
-  <si>
-    <t>Singra</t>
+    <t>RET-35369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sinja Telecom</t>
+  </si>
+  <si>
+    <t>Lalpur</t>
+  </si>
+  <si>
+    <t>RET-36163</t>
+  </si>
+  <si>
+    <t>Square Telecom</t>
+  </si>
+  <si>
+    <t>RET-34131</t>
+  </si>
+  <si>
+    <t>Maysha Telecom 2</t>
+  </si>
+  <si>
+    <t>Doyaramrpur</t>
+  </si>
+  <si>
+    <t>RET-34494</t>
+  </si>
+  <si>
+    <t>Star Mobile</t>
+  </si>
+  <si>
+    <t>Road View</t>
+  </si>
+  <si>
+    <t>RET-21144</t>
+  </si>
+  <si>
+    <t>Fahim Telecom</t>
+  </si>
+  <si>
+    <t>Abdulpur Bazar</t>
+  </si>
+  <si>
+    <t>RET-26738</t>
+  </si>
+  <si>
+    <t>Vai Vai Electronics</t>
+  </si>
+  <si>
+    <t>Malonchi Bazar</t>
+  </si>
+  <si>
+    <t>RET-26509</t>
+  </si>
+  <si>
+    <t>Sohag Mobile Zone</t>
+  </si>
+  <si>
+    <t>RET-14865</t>
+  </si>
+  <si>
+    <t>Sardar Electronics</t>
+  </si>
+  <si>
+    <t>Alim Super Market</t>
+  </si>
+  <si>
+    <t>RET-28515</t>
+  </si>
+  <si>
+    <t>Likhon Telecom</t>
+  </si>
+  <si>
+    <t>Moukhara Bazar</t>
+  </si>
+  <si>
+    <t>RET-34133</t>
+  </si>
+  <si>
+    <t>Ronju Computer</t>
+  </si>
+  <si>
+    <t>Gurudaspur</t>
   </si>
 </sst>
 </file>
@@ -176,21 +200,26 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -200,14 +229,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,279 +543,297 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="2.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="9"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="9"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/2020/Others/Adding New Retailer Format/Inactive retailers format.xlsx
+++ b/2020/Others/Adding New Retailer Format/Inactive retailers format.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">RetailerID </t>
   </si>
@@ -33,91 +33,40 @@
     <t xml:space="preserve">RetailerAddress </t>
   </si>
   <si>
-    <t>Bagha Bazar</t>
-  </si>
-  <si>
-    <t>RET-35369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Sinja Telecom</t>
-  </si>
-  <si>
-    <t>Lalpur</t>
-  </si>
-  <si>
-    <t>RET-36163</t>
-  </si>
-  <si>
-    <t>Square Telecom</t>
-  </si>
-  <si>
-    <t>RET-34131</t>
-  </si>
-  <si>
-    <t>Maysha Telecom 2</t>
-  </si>
-  <si>
-    <t>Doyaramrpur</t>
-  </si>
-  <si>
-    <t>RET-34494</t>
-  </si>
-  <si>
-    <t>Star Mobile</t>
-  </si>
-  <si>
-    <t>Road View</t>
-  </si>
-  <si>
-    <t>RET-21144</t>
-  </si>
-  <si>
-    <t>Fahim Telecom</t>
-  </si>
-  <si>
-    <t>Abdulpur Bazar</t>
-  </si>
-  <si>
-    <t>RET-26738</t>
-  </si>
-  <si>
-    <t>Vai Vai Electronics</t>
-  </si>
-  <si>
-    <t>Malonchi Bazar</t>
-  </si>
-  <si>
-    <t>RET-26509</t>
-  </si>
-  <si>
-    <t>Sohag Mobile Zone</t>
-  </si>
-  <si>
-    <t>RET-14865</t>
-  </si>
-  <si>
-    <t>Sardar Electronics</t>
-  </si>
-  <si>
-    <t>Alim Super Market</t>
-  </si>
-  <si>
-    <t>RET-28515</t>
-  </si>
-  <si>
-    <t>Likhon Telecom</t>
-  </si>
-  <si>
-    <t>Moukhara Bazar</t>
-  </si>
-  <si>
-    <t>RET-34133</t>
-  </si>
-  <si>
-    <t>Ronju Computer</t>
-  </si>
-  <si>
-    <t>Gurudaspur</t>
+    <t xml:space="preserve">Mobile Palace </t>
+  </si>
+  <si>
+    <t>School MarketPuthiaRajshahi</t>
+  </si>
+  <si>
+    <t>RET-08822</t>
+  </si>
+  <si>
+    <t>Ma Digital Studio &amp; Electronics</t>
+  </si>
+  <si>
+    <t>RET-35304</t>
+  </si>
+  <si>
+    <t>Edilpur Gurudaspur Natore.</t>
+  </si>
+  <si>
+    <t>RET-26510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahfuz Telecom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kakramari Bazar Charghat Rajshahi </t>
+  </si>
+  <si>
+    <t>Abir Electronics</t>
+  </si>
+  <si>
+    <t>RET-36274</t>
+  </si>
+  <si>
+    <t>Kaligong Bazar Singra Natore</t>
   </si>
 </sst>
 </file>
@@ -220,6 +169,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -228,12 +183,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,7 +492,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -569,29 +518,29 @@
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1">
       <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -604,96 +553,60 @@
     </row>
     <row r="5" spans="1:14" ht="17.25" customHeight="1">
       <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="10"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="10"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="8"/>
@@ -706,54 +619,54 @@
       <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2"/>

--- a/2020/Others/Adding New Retailer Format/Inactive retailers format.xlsx
+++ b/2020/Others/Adding New Retailer Format/Inactive retailers format.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t xml:space="preserve">RetailerID </t>
   </si>
@@ -33,40 +33,106 @@
     <t xml:space="preserve">RetailerAddress </t>
   </si>
   <si>
-    <t xml:space="preserve">Mobile Palace </t>
-  </si>
-  <si>
-    <t>School MarketPuthiaRajshahi</t>
-  </si>
-  <si>
-    <t>RET-08822</t>
-  </si>
-  <si>
-    <t>Ma Digital Studio &amp; Electronics</t>
-  </si>
-  <si>
-    <t>RET-35304</t>
-  </si>
-  <si>
-    <t>Edilpur Gurudaspur Natore.</t>
-  </si>
-  <si>
-    <t>RET-26510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mahfuz Telecom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kakramari Bazar Charghat Rajshahi </t>
-  </si>
-  <si>
-    <t>Abir Electronics</t>
-  </si>
-  <si>
-    <t>RET-36274</t>
-  </si>
-  <si>
-    <t>Kaligong Bazar Singra Natore</t>
+    <t>Mim Mahim Mobile Center</t>
+  </si>
+  <si>
+    <t>RET-33098</t>
+  </si>
+  <si>
+    <t>Jonail</t>
+  </si>
+  <si>
+    <t>Dolon Mobile</t>
+  </si>
+  <si>
+    <t>RET-35305</t>
+  </si>
+  <si>
+    <t>Road View</t>
+  </si>
+  <si>
+    <t>RET-36438</t>
+  </si>
+  <si>
+    <t>Alamin Teleom</t>
+  </si>
+  <si>
+    <t>Singra</t>
+  </si>
+  <si>
+    <t>RET-19352</t>
+  </si>
+  <si>
+    <t>Five Brothers</t>
+  </si>
+  <si>
+    <t>Gormati Bazar</t>
+  </si>
+  <si>
+    <t>RET-28692</t>
+  </si>
+  <si>
+    <t>Muskan Telecom</t>
+  </si>
+  <si>
+    <t>Bonpara Bazar</t>
+  </si>
+  <si>
+    <t>RET-35280</t>
+  </si>
+  <si>
+    <t>Sohan Electric &amp; Hardware</t>
+  </si>
+  <si>
+    <t>RET-36275</t>
+  </si>
+  <si>
+    <t>Ma Electronics</t>
+  </si>
+  <si>
+    <t>RET-30272</t>
+  </si>
+  <si>
+    <t>Ratna Traders &amp; Computers</t>
+  </si>
+  <si>
+    <t>Puthimari Bazar</t>
+  </si>
+  <si>
+    <t>RET-08804</t>
+  </si>
+  <si>
+    <t>Adda Telecom</t>
+  </si>
+  <si>
+    <t>Sardah Bazar</t>
+  </si>
+  <si>
+    <t>RET-15343</t>
+  </si>
+  <si>
+    <t>Rana Telecom</t>
+  </si>
+  <si>
+    <t>Haibatpur Bazar</t>
+  </si>
+  <si>
+    <t>RET-21139</t>
+  </si>
+  <si>
+    <t>Mukta Gift Corner</t>
+  </si>
+  <si>
+    <t>Dhopapara Bazar</t>
+  </si>
+  <si>
+    <t>RET-37053</t>
+  </si>
+  <si>
+    <t>SR Telecom</t>
+  </si>
+  <si>
+    <t>Jholmolia</t>
   </si>
 </sst>
 </file>
@@ -147,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -178,11 +244,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,7 +564,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -517,25 +589,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -552,76 +624,126 @@
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="10"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12"/>
+      <c r="A6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
+      <c r="A7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="9"/>
@@ -760,5 +882,6 @@
     <mergeCell ref="L6:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2020/Others/Adding New Retailer Format/Inactive retailers format.xlsx
+++ b/2020/Others/Adding New Retailer Format/Inactive retailers format.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">RetailerID </t>
   </si>
@@ -33,106 +33,43 @@
     <t xml:space="preserve">RetailerAddress </t>
   </si>
   <si>
-    <t>Mim Mahim Mobile Center</t>
-  </si>
-  <si>
-    <t>RET-33098</t>
-  </si>
-  <si>
-    <t>Jonail</t>
-  </si>
-  <si>
-    <t>Dolon Mobile</t>
-  </si>
-  <si>
-    <t>RET-35305</t>
-  </si>
-  <si>
-    <t>Road View</t>
-  </si>
-  <si>
-    <t>RET-36438</t>
-  </si>
-  <si>
-    <t>Alamin Teleom</t>
-  </si>
-  <si>
-    <t>Singra</t>
-  </si>
-  <si>
-    <t>RET-19352</t>
-  </si>
-  <si>
-    <t>Five Brothers</t>
-  </si>
-  <si>
-    <t>Gormati Bazar</t>
-  </si>
-  <si>
-    <t>RET-28692</t>
-  </si>
-  <si>
-    <t>Muskan Telecom</t>
-  </si>
-  <si>
-    <t>Bonpara Bazar</t>
-  </si>
-  <si>
-    <t>RET-35280</t>
-  </si>
-  <si>
-    <t>Sohan Electric &amp; Hardware</t>
-  </si>
-  <si>
-    <t>RET-36275</t>
-  </si>
-  <si>
-    <t>Ma Electronics</t>
-  </si>
-  <si>
-    <t>RET-30272</t>
-  </si>
-  <si>
-    <t>Ratna Traders &amp; Computers</t>
-  </si>
-  <si>
-    <t>Puthimari Bazar</t>
-  </si>
-  <si>
-    <t>RET-08804</t>
-  </si>
-  <si>
-    <t>Adda Telecom</t>
-  </si>
-  <si>
-    <t>Sardah Bazar</t>
-  </si>
-  <si>
-    <t>RET-15343</t>
-  </si>
-  <si>
-    <t>Rana Telecom</t>
-  </si>
-  <si>
-    <t>Haibatpur Bazar</t>
-  </si>
-  <si>
-    <t>RET-21139</t>
-  </si>
-  <si>
-    <t>Mukta Gift Corner</t>
-  </si>
-  <si>
-    <t>Dhopapara Bazar</t>
-  </si>
-  <si>
-    <t>RET-37053</t>
-  </si>
-  <si>
-    <t>SR Telecom</t>
-  </si>
-  <si>
-    <t>Jholmolia</t>
+    <t xml:space="preserve"> Ujjal Electronics </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RET-20438 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bagha Bazar Bagha Rajshahi </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Masum Electronics </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RET-35441 </t>
+  </si>
+  <si>
+    <t>Basudebpur Naldanga Natore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ma Telecom </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RET-36434 </t>
+  </si>
+  <si>
+    <t>Arani Bazar Bagha Rajshahi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Babu Electronics </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RET-36971 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Islabari Natore </t>
+  </si>
+  <si>
+    <t>Ahona Telecom</t>
   </si>
 </sst>
 </file>
@@ -244,6 +181,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -252,9 +192,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,7 +501,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -589,156 +526,110 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1">
       <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="13"/>
+      <c r="C6" s="8"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>30</v>
-      </c>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="7"/>
